--- a/biology/Zoologie/Le_Défi_de_Lassie/Le_Défi_de_Lassie.xlsx
+++ b/biology/Zoologie/Le_Défi_de_Lassie/Le_Défi_de_Lassie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9fi_de_Lassie</t>
+          <t>Le_Défi_de_Lassie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Défi de Lassie (titre original : Challenge to Lassie) est un film américain réalisé par Richard Thorpe sorti en 1949.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9fi_de_Lassie</t>
+          <t>Le_Défi_de_Lassie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En Écosse, Lassie est élevée dans le but de devenir une chienne de berger. Mais lorsque son maître adoré est tué par un mendiant, la pauvre chienne n'a pas d'autre choix que de pleurer sur la tombe de celui-ci. Elle finira par être adoptée par le sergent Davie, après une bataille juridique.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9fi_de_Lassie</t>
+          <t>Le_Défi_de_Lassie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Challenge to Lassie
 Titre français : Le Défi de Lassie
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9fi_de_Lassie</t>
+          <t>Le_Défi_de_Lassie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Edmund Gwenn : John Traill
 Donald Crisp : Jock Gray
